--- a/output/utskrift_2020-06-14/B/Lätt klass individuell skritt/7Maria Nöjd_B_klass15_Grund_Diesel_Su.xlsx
+++ b/output/utskrift_2020-06-14/B/Lätt klass individuell skritt/7Maria Nöjd_B_klass15_Grund_Diesel_Su.xlsx
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <x:si>
     <x:t>Information</x:t>
   </x:si>
@@ -650,6 +650,9 @@
   </x:si>
   <x:si>
     <x:t>Arm nr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Svart 8</x:t>
   </x:si>
   <x:si>
     <x:t>SE</x:t>
@@ -3234,7 +3237,7 @@
     <x:row r="1" spans="1:12" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <x:row r="2" spans="1:12" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <x:c r="A2" s="27" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="H2" s="21" t="s">
         <x:v>44</x:v>
@@ -3428,7 +3431,7 @@
     </x:row>
     <x:row r="17" spans="1:12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A17" s="213" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B17" s="222" t="s">
         <x:v>86</x:v>
@@ -3533,7 +3536,7 @@
     </x:row>
     <x:row r="23" spans="1:12" customFormat="1" ht="20.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <x:c r="A23" s="50" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B23" s="285" t="n">
         <x:v>0</x:v>
@@ -3557,10 +3560,10 @@
     </x:row>
     <x:row r="24" spans="1:12" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <x:c r="E24" s="57" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F24" s="11" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="G24" s="121">
         <x:f>G23/5</x:f>
@@ -3638,7 +3641,7 @@
     <x:row r="31" spans="1:12" x14ac:dyDescent="0.3"/>
     <x:row r="32" spans="1:12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A32" s="243" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B32" s="243" t="s"/>
       <x:c r="C32" s="243" t="s"/>
@@ -3659,7 +3662,7 @@
     </x:row>
     <x:row r="33" spans="1:12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A33" s="243" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B33" s="243" t="s"/>
       <x:c r="C33" s="243" t="s"/>
@@ -7343,7 +7346,9 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="K7" s="86" t="s"/>
-      <x:c r="L7" s="85" t="s"/>
+      <x:c r="L7" s="85" t="s">
+        <x:v>137</x:v>
+      </x:c>
     </x:row>
     <x:row r="8" spans="1:13" customFormat="1" ht="17.1" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A8" s="2" t="s">
@@ -7351,7 +7356,7 @@
       </x:c>
       <x:c r="B8" s="2" t="s"/>
       <x:c r="C8" s="40" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D8" s="40" t="s"/>
       <x:c r="E8" s="40" t="s"/>
@@ -7363,7 +7368,7 @@
       </x:c>
       <x:c r="B9" s="6" t="s"/>
       <x:c r="C9" s="158" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D9" s="158" t="s"/>
       <x:c r="E9" s="158" t="s"/>
@@ -7375,7 +7380,7 @@
       </x:c>
       <x:c r="B10" s="6" t="s"/>
       <x:c r="C10" s="158" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D10" s="158" t="s"/>
       <x:c r="E10" s="158" t="s"/>
@@ -7398,7 +7403,7 @@
       <x:c r="J13" s="6" t="s"/>
       <x:c r="K13" s="82" t="s"/>
       <x:c r="L13" s="12" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:13" customFormat="1" ht="20.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7435,7 +7440,7 @@
     </x:row>
     <x:row r="16" spans="1:13" customFormat="1" ht="20.1" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A16" s="107" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B16" s="113" t="s"/>
       <x:c r="C16" s="113" t="s"/>
@@ -7483,7 +7488,7 @@
     </x:row>
     <x:row r="19" spans="1:13" customFormat="1" ht="20.1" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A19" s="110" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B19" s="111" t="s"/>
       <x:c r="C19" s="111" t="s"/>
@@ -7505,7 +7510,7 @@
       <x:c r="I21" s="17" t="s"/>
       <x:c r="J21" s="19" t="s"/>
       <x:c r="K21" s="17" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="L21" s="12">
         <x:f>SUM(L14:L19)</x:f>
@@ -7579,7 +7584,7 @@
       <x:c r="A26" s="180" t="s"/>
       <x:c r="B26" s="182" t="s"/>
       <x:c r="C26" s="182" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D26" s="182" t="s"/>
       <x:c r="E26" s="194" t="s">
@@ -7595,7 +7600,7 @@
     </x:row>
     <x:row r="27" spans="1:13" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A27" s="178" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B27" s="203" t="s">
         <x:v>86</x:v>
@@ -7687,7 +7692,7 @@
       <x:c r="G32" s="1" t="s"/>
       <x:c r="I32" s="1" t="s"/>
       <x:c r="J32" s="57" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="K32" s="58" t="s"/>
       <x:c r="L32" s="51">
@@ -7697,7 +7702,7 @@
     <x:row r="33" spans="1:13" s="68" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <x:c r="I33" s="71" t="s"/>
       <x:c r="J33" s="21" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="K33" s="69" t="s"/>
       <x:c r="L33" s="99">
@@ -7718,7 +7723,7 @@
       </x:c>
       <x:c r="B35" s="41" t="s"/>
       <x:c r="C35" s="41" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D35" s="41" t="s"/>
       <x:c r="E35" s="41" t="s"/>
@@ -7830,7 +7835,7 @@
     <x:row r="1" spans="1:12" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <x:row r="2" spans="1:12" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <x:c r="A2" s="27" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="H2" s="21" t="s">
         <x:v>44</x:v>
@@ -8025,7 +8030,7 @@
     </x:row>
     <x:row r="17" spans="1:12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A17" s="213" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B17" s="222" t="s">
         <x:v>86</x:v>
@@ -8132,7 +8137,7 @@
     </x:row>
     <x:row r="23" spans="1:12" customFormat="1" ht="20.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <x:c r="A23" s="50" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B23" s="285" t="n">
         <x:v>0</x:v>
@@ -8156,10 +8161,10 @@
     </x:row>
     <x:row r="24" spans="1:12" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <x:c r="E24" s="57" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F24" s="11" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="G24" s="121">
         <x:f>G23/5</x:f>
@@ -8237,7 +8242,7 @@
     <x:row r="31" spans="1:12" x14ac:dyDescent="0.3"/>
     <x:row r="32" spans="1:12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A32" s="243" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B32" s="243" t="s"/>
       <x:c r="C32" s="243" t="s"/>
@@ -8258,7 +8263,7 @@
     </x:row>
     <x:row r="33" spans="1:12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A33" s="243" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B33" s="243" t="s"/>
       <x:c r="C33" s="243" t="s"/>
@@ -8437,7 +8442,7 @@
     <x:row r="1" spans="1:13" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <x:row r="2" spans="1:13" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <x:c r="A2" s="27" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="H2" s="3" t="s"/>
       <x:c r="I2" s="7" t="s">
@@ -8566,7 +8571,7 @@
       <x:c r="J13" s="6" t="s"/>
       <x:c r="K13" s="82" t="s"/>
       <x:c r="L13" s="12" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:13" customFormat="1" ht="20.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8603,7 +8608,7 @@
     </x:row>
     <x:row r="16" spans="1:13" customFormat="1" ht="20.1" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A16" s="107" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B16" s="113" t="s"/>
       <x:c r="C16" s="113" t="s"/>
@@ -8651,7 +8656,7 @@
     </x:row>
     <x:row r="19" spans="1:13" customFormat="1" ht="20.1" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A19" s="110" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B19" s="111" t="s"/>
       <x:c r="C19" s="111" t="s"/>
@@ -8673,7 +8678,7 @@
       <x:c r="I21" s="17" t="s"/>
       <x:c r="J21" s="19" t="s"/>
       <x:c r="K21" s="17" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="L21" s="12">
         <x:f>SUM(L14:L19)</x:f>
@@ -8747,7 +8752,7 @@
       <x:c r="A26" s="180" t="s"/>
       <x:c r="B26" s="182" t="s"/>
       <x:c r="C26" s="182" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D26" s="182" t="s"/>
       <x:c r="E26" s="194" t="s">
@@ -8763,7 +8768,7 @@
     </x:row>
     <x:row r="27" spans="1:13" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A27" s="178" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B27" s="203" t="s">
         <x:v>86</x:v>
@@ -8855,7 +8860,7 @@
       <x:c r="G32" s="1" t="s"/>
       <x:c r="I32" s="1" t="s"/>
       <x:c r="J32" s="57" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="K32" s="58" t="s"/>
       <x:c r="L32" s="51">
@@ -8865,7 +8870,7 @@
     <x:row r="33" spans="1:13" s="68" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <x:c r="I33" s="71" t="s"/>
       <x:c r="J33" s="21" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="K33" s="69" t="s"/>
       <x:c r="L33" s="99">
